--- a/assets/play.xlsx
+++ b/assets/play.xlsx
@@ -133,6 +133,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -154,6 +155,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -209,11 +211,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -257,7 +259,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -283,27 +285,27 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -315,18 +317,18 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -335,55 +337,55 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -395,15 +397,15 @@
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -415,15 +417,15 @@
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -435,15 +437,15 @@
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="0" t="s">
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -455,15 +457,15 @@
       <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="0" t="s">
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -475,15 +477,15 @@
       <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="0" t="s">
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -495,15 +497,15 @@
       <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -512,18 +514,18 @@
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -535,15 +537,15 @@
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="0" t="s">
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -555,10 +557,10 @@
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
